--- a/ARM Results/Scenario 8/Unified_Claims_Liability_Summary_8.xlsx
+++ b/ARM Results/Scenario 8/Unified_Claims_Liability_Summary_8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\ARM Results\Scenario 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0803890-8D90-4F42-B847-636346F2757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04774AAD-D245-4CF9-82BD-715F847F4A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B94C235-4B85-4887-832D-FBC296CFB081}"/>
   </bookViews>
@@ -41,6 +41,10 @@
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -91,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Company_Code</t>
   </si>
@@ -229,6 +233,9 @@
   </si>
   <si>
     <t>Average Volume6</t>
+  </si>
+  <si>
+    <t>Unified has an additional 500k reserve for LL</t>
   </si>
 </sst>
 </file>
@@ -723,12 +730,12 @@
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>11846.479198751302</v>
+            <v>96331.707081182802</v>
           </cell>
         </row>
       </sheetData>
@@ -792,6 +799,106 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Summary"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="36">
+          <cell r="E36">
+            <v>628236.15</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="H33">
+            <v>18962.713674200641</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="36">
+          <cell r="E36">
+            <v>21308.7</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="H33">
+            <v>11846.479198751302</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
       <sheetName val="Completion Factors"/>
       <sheetName val="CL_By_LOB"/>
       <sheetName val="EOB Information"/>
@@ -833,7 +940,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -861,7 +968,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -887,7 +994,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -932,7 +1039,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -958,7 +1065,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1562,7 +1669,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -2020,64 +2127,98 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10">
+        <f>+[19]Summary!$H$33</f>
+        <v>96331.707081182802</v>
+      </c>
       <c r="C11" s="5">
         <v>0.05</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4816.5853540591406</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+        <v>101148.29243524194</v>
+      </c>
+      <c r="G11" s="10">
+        <f>+[20]Summary!$E$36</f>
+        <v>628236.15</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" ref="H11:H12" si="4">+E11-G11</f>
+        <v>-527087.85756475804</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" ref="I11:I12" si="5">+H11/G11</f>
+        <v>-0.83899638307148994</v>
+      </c>
       <c r="J11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10">
+        <f>+[21]Summary!$H$33</f>
+        <v>18962.713674200641</v>
+      </c>
       <c r="C12" s="5">
         <v>0.05</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>948.13568371003203</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+        <v>19910.849357910673</v>
+      </c>
+      <c r="G12" s="10">
+        <f>+[22]Summary!$E$36</f>
+        <v>21308.7</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="4"/>
+        <v>-1397.8506420893282</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="5"/>
+        <v>-6.5599996343715383E-2</v>
+      </c>
       <c r="J12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="10">
-        <f>+[19]Summary!$H$33</f>
+        <f>+[23]Summary!$H$33</f>
         <v>11846.479198751302</v>
       </c>
       <c r="C13" s="3">
-        <f>+[20]Summary!$H$35</f>
+        <f>+[24]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D13" s="9">
@@ -2089,7 +2230,7 @@
         <v>12734.96513865765</v>
       </c>
       <c r="G13" s="10">
-        <f>+[20]Summary!$H$36</f>
+        <f>+[24]Summary!$H$36</f>
         <v>22925.112714356808</v>
       </c>
       <c r="H13" s="10">
@@ -2119,7 +2260,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="3">
-        <f>+[21]Summary!$H$35</f>
+        <f>+[25]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D14" s="9">
@@ -2147,11 +2288,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="10">
-        <f>+[22]Summary!L33</f>
+        <f>+[26]Summary!L33</f>
         <v>54333.136088739877</v>
       </c>
       <c r="C15" s="3">
-        <f>+[23]Summary!$L$35</f>
+        <f>+[27]Summary!$L$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D15" s="9">
@@ -2163,7 +2304,7 @@
         <v>58408.121295395365</v>
       </c>
       <c r="G15" s="10">
-        <f>+[23]Summary!$L$36</f>
+        <f>+[27]Summary!$L$36</f>
         <v>70721.566596096614</v>
       </c>
       <c r="H15" s="10">
@@ -2192,11 +2333,11 @@
         <v>17</v>
       </c>
       <c r="B16" s="10">
-        <f>+[24]Summary!$H$33</f>
+        <f>+[28]Summary!$H$33</f>
         <v>833680.86909843481</v>
       </c>
       <c r="C16" s="3">
-        <f>+[25]Summary!$H$35</f>
+        <f>+[29]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="9">
@@ -2208,7 +2349,7 @@
         <v>896206.9342808174</v>
       </c>
       <c r="G16" s="10">
-        <f>+[25]Summary!$H$36</f>
+        <f>+[29]Summary!$H$36</f>
         <v>777303.67606529</v>
       </c>
       <c r="H16" s="10">
@@ -2242,29 +2383,29 @@
       </c>
       <c r="B18" s="7">
         <f>+SUM(B2:B17)</f>
-        <v>1472744.2950425297</v>
+        <v>1588038.7157979133</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7">
         <f>+SUM(D2:D17)</f>
-        <v>110455.82212818973</v>
+        <v>116220.54316595891</v>
       </c>
       <c r="E18" s="7">
         <f>+SUM(E2:E17)</f>
-        <v>1583200.1171707194</v>
+        <v>1704259.2589638722</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7">
         <f>+SUM(G2:G17)</f>
-        <v>1483341.0326031842</v>
+        <v>2132885.8826031839</v>
       </c>
       <c r="H18" s="7">
         <f>+SUM(H2:H17)</f>
-        <v>99859.084567535552</v>
+        <v>-428626.62363931176</v>
       </c>
       <c r="I18" s="11">
         <f>+H18/G18</f>
-        <v>6.7320381741404534E-2</v>
+        <v>-0.20096087987425451</v>
       </c>
       <c r="J18" s="12"/>
     </row>
